--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/ABC/10/seed3/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/ABC/10/seed3/result_data_RandomForest.xlsx
@@ -553,7 +553,7 @@
         <v>6.56</v>
       </c>
       <c r="C7" t="n">
-        <v>-12.0053</v>
+        <v>-12.1619</v>
       </c>
       <c r="D7" t="n">
         <v>-9.31</v>
@@ -598,7 +598,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-20.50229999999997</v>
+        <v>-20.44259999999997</v>
       </c>
       <c r="B10" t="n">
         <v>9.35</v>
@@ -632,7 +632,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-22.33560000000003</v>
+        <v>-22.51650000000004</v>
       </c>
       <c r="B12" t="n">
         <v>5.38</v>
@@ -652,7 +652,7 @@
         <v>-21.95</v>
       </c>
       <c r="B13" t="n">
-        <v>5.778700000000002</v>
+        <v>5.873499999999996</v>
       </c>
       <c r="C13" t="n">
         <v>-13.63</v>
@@ -734,7 +734,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-22.29180000000002</v>
+        <v>-22.49290000000003</v>
       </c>
       <c r="B18" t="n">
         <v>5.81</v>
@@ -774,7 +774,7 @@
         <v>5.51</v>
       </c>
       <c r="C20" t="n">
-        <v>-14.1189</v>
+        <v>-14.92839999999999</v>
       </c>
       <c r="D20" t="n">
         <v>-8.140000000000001</v>
